--- a/Daniel_Antonov_RLog.xlsx
+++ b/Daniel_Antonov_RLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielantonov/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielantonov/Desktop/Infosüsteemide arendamine II/ISA2_DanielAntonov/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CABFFC-EFA8-BC4C-ABAD-6FDDDA021A99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F91270-8AD3-7048-881D-545DD94C1AC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Lecture</t>
-  </si>
-  <si>
     <t>Total Time:</t>
   </si>
   <si>
@@ -83,37 +80,7 @@
     <t>Daniel Antonov</t>
   </si>
   <si>
-    <t>materjalide ulevaatamine, excel tabeli ning kospekti koostamine</t>
-  </si>
-  <si>
-    <t>C# 2-4 tund ja konspekteerimine, chat</t>
-  </si>
-  <si>
-    <t>C# 5,6 tund, konspekteerimine ja Visual Studios kirjutasin erinevaid if-lauseid</t>
-  </si>
-  <si>
-    <t>C# 7-9 tund, konspekteerimine ja Visual Studios array'de meeldetuletus</t>
-  </si>
-  <si>
-    <t>C# 10-12 tund ja konspekteerimine, chat, telefonikone</t>
-  </si>
-  <si>
-    <t>C# 13,14 tund ja konspekteerimine</t>
-  </si>
-  <si>
-    <t>C# 15 tund ja konspekteerimine, chat</t>
-  </si>
-  <si>
-    <t>Uldine sissejuhatus, vahetund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koodi kirjutamine </t>
-  </si>
-  <si>
-    <t>Koodi kirjutamine, visual stuido githubiga uhendamine, C#16-21 tund, konspekt,  chat</t>
-  </si>
-  <si>
-    <t>Koodi kirjutamine, C# 22-24 tund, konspekt, chat</t>
+    <t>HTML&amp;CSS 1-3, Moodle test</t>
   </si>
 </sst>
 </file>
@@ -895,7 +862,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -944,7 +911,7 @@
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
@@ -952,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="44">
-        <v>43496</v>
+        <v>43501</v>
       </c>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
@@ -1005,24 +972,26 @@
         <v>1</v>
       </c>
       <c r="B7" s="18">
-        <v>43493</v>
+        <v>43501</v>
       </c>
       <c r="C7" s="19">
-        <v>0.66666666666666663</v>
+        <v>0.68333333333333324</v>
       </c>
       <c r="D7" s="19">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="E7" s="20"/>
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="E7" s="20">
+        <v>10</v>
+      </c>
       <c r="F7" s="21">
         <f>(D7-C7)*24*60 - E7</f>
-        <v>90</v>
+        <v>201.0000000000002</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="22"/>
@@ -1031,53 +1000,37 @@
       <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="7">
-        <v>43495</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.60763888888888895</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
-        <v>35.000000000000036</v>
+        <v>0</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>3</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="8">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="5">
         <f>(D9-C9)*24*60 - E9</f>
-        <v>45.000000000000142</v>
+        <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H9" s="31"/>
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
@@ -1086,23 +1039,17 @@
         <v>4</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="8">
-        <v>0.7402777777777777</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.79513888888888884</v>
-      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="6"/>
       <c r="F10" s="5">
         <f>(D10-C10)*24*60 - E10</f>
-        <v>79.000000000000043</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
@@ -1111,25 +1058,17 @@
         <v>5</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="8">
-        <v>0.88750000000000007</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.93958333333333333</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2</v>
-      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="5">
         <f>(D11-C11)*24*60 - E11</f>
-        <v>72.999999999999886</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
@@ -1137,28 +1076,18 @@
       <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B12" s="7">
-        <v>43496</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.6777777777777777</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.76736111111111116</v>
-      </c>
-      <c r="E12" s="6">
-        <v>15</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="5">
         <f>(D12-C12)*24*60 - E12</f>
-        <v>114.00000000000017</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
@@ -1167,23 +1096,17 @@
         <v>7</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="8">
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.82986111111111116</v>
-      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="6"/>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>35.000000000000199</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
@@ -1192,25 +1115,17 @@
         <v>8</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.92847222222222225</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3</v>
-      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>38.000000000000014</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
@@ -1218,28 +1133,18 @@
       <c r="A15" s="9">
         <v>9</v>
       </c>
-      <c r="B15" s="7">
-        <v>43497</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="E15" s="6">
-        <v>15</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="5">
         <f>(D15-C15)*24*60 - E15</f>
-        <v>150.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="10"/>
     </row>
@@ -1247,28 +1152,18 @@
       <c r="A16" s="9">
         <v>10</v>
       </c>
-      <c r="B16" s="7">
-        <v>43499</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.82986111111111116</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.94444444444444453</v>
-      </c>
-      <c r="E16" s="6">
-        <v>20</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>145.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="10"/>
     </row>
@@ -1276,28 +1171,18 @@
       <c r="A17" s="9">
         <v>11</v>
       </c>
-      <c r="B17" s="7">
-        <v>43500</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0.51944444444444449</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.73749999999999993</v>
-      </c>
-      <c r="E17" s="6">
-        <v>40</v>
-      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>273.99999999999983</v>
+        <v>0</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="10"/>
     </row>
@@ -1306,31 +1191,23 @@
         <v>12</v>
       </c>
       <c r="B18" s="24"/>
-      <c r="C18" s="25">
-        <v>0.88958333333333339</v>
-      </c>
-      <c r="D18" s="25">
-        <v>0.96527777777777779</v>
-      </c>
-      <c r="E18" s="26">
-        <v>5</v>
-      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
-        <v>103.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -1338,7 +1215,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>1182.0000000000002</v>
+        <v>201.0000000000002</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>

--- a/Daniel_Antonov_RLog.xlsx
+++ b/Daniel_Antonov_RLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielantonov/Desktop/Infosüsteemide arendamine II/ISA2_DanielAntonov/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F91270-8AD3-7048-881D-545DD94C1AC8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE9D385-5416-2540-B301-91ADC9AC0738}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>HTML&amp;CSS 1-3, Moodle test</t>
+  </si>
+  <si>
+    <t>HTML&amp;CSS 4-5, Git'i seadistamine VS code'is, chat</t>
+  </si>
+  <si>
+    <t>HTML&amp;CSS 6-12,  louna,  chat</t>
+  </si>
+  <si>
+    <t>Muutujad</t>
   </si>
 </sst>
 </file>
@@ -862,7 +871,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1000,37 +1009,57 @@
       <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="7">
+        <v>43502</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.8125</v>
+      </c>
+      <c r="E8" s="6">
+        <v>30</v>
+      </c>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
-        <v>0</v>
+        <v>270.00000000000006</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="7">
+        <v>43503</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.6875</v>
+      </c>
+      <c r="E9" s="6">
+        <v>30</v>
+      </c>
       <c r="F9" s="5">
         <f>(D9-C9)*24*60 - E9</f>
-        <v>0</v>
+        <v>309.99999999999994</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="10"/>
     </row>
@@ -1038,18 +1067,26 @@
       <c r="A10" s="9">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="7">
+        <v>43504</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5">
         <f>(D10-C10)*24*60 - E10</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
@@ -1057,13 +1094,17 @@
       <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="B11" s="7">
+        <v>43507</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.4375</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="6"/>
       <c r="F11" s="5">
         <f>(D11-C11)*24*60 - E11</f>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>14</v>
@@ -1215,7 +1256,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>201.0000000000002</v>
+        <v>241.00000000000023</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>

--- a/Daniel_Antonov_RLog.xlsx
+++ b/Daniel_Antonov_RLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielantonov/Desktop/Infosüsteemide arendamine II/ISA2_DanielAntonov/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE9D385-5416-2540-B301-91ADC9AC0738}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9B6F65-A695-504B-A0ED-22ACF50F70DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Muutujad</t>
+  </si>
+  <si>
+    <t>HTML&amp;CSS 13-18,  chat</t>
   </si>
 </sst>
 </file>
@@ -871,7 +874,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1100,16 +1103,22 @@
       <c r="C11" s="8">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="8">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E11" s="6">
+        <v>30</v>
+      </c>
       <c r="F11" s="5">
         <f>(D11-C11)*24*60 - E11</f>
-        <v>-630</v>
+        <v>159.99999999999997</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
@@ -1256,7 +1265,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>241.00000000000023</v>
+        <v>1031.0000000000002</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>

--- a/Daniel_Antonov_RLog.xlsx
+++ b/Daniel_Antonov_RLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielantonov/Desktop/Infosüsteemide arendamine II/ISA2_DanielAntonov/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9B6F65-A695-504B-A0ED-22ACF50F70DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC8642-14BD-9D45-8649-D35BF714B6E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -80,19 +80,13 @@
     <t>Daniel Antonov</t>
   </si>
   <si>
-    <t>HTML&amp;CSS 1-3, Moodle test</t>
-  </si>
-  <si>
-    <t>HTML&amp;CSS 4-5, Git'i seadistamine VS code'is, chat</t>
-  </si>
-  <si>
-    <t>HTML&amp;CSS 6-12,  louna,  chat</t>
-  </si>
-  <si>
-    <t>Muutujad</t>
-  </si>
-  <si>
-    <t>HTML&amp;CSS 13-18,  chat</t>
+    <t>JavaScript 1-7, louna</t>
+  </si>
+  <si>
+    <t>JavaScript 8-17, chat</t>
+  </si>
+  <si>
+    <t>JavaScript 18-20</t>
   </si>
 </sst>
 </file>
@@ -874,7 +868,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -931,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="44">
-        <v>43501</v>
+        <v>43509</v>
       </c>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
@@ -984,20 +978,20 @@
         <v>1</v>
       </c>
       <c r="B7" s="18">
-        <v>43501</v>
+        <v>43509</v>
       </c>
       <c r="C7" s="19">
-        <v>0.68333333333333324</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="D7" s="19">
-        <v>0.82986111111111116</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="E7" s="20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F7" s="21">
         <f>(D7-C7)*24*60 - E7</f>
-        <v>201.0000000000002</v>
+        <v>124.99999999999994</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>14</v>
@@ -1012,21 +1006,19 @@
       <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="7">
-        <v>43502</v>
-      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="8">
-        <v>0.60416666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D8" s="8">
-        <v>0.8125</v>
+        <v>0.83680555555555547</v>
       </c>
       <c r="E8" s="6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
-        <v>270.00000000000006</v>
+        <v>219.99999999999994</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -1041,21 +1033,17 @@
       <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="7">
-        <v>43503</v>
-      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="8">
-        <v>0.4513888888888889</v>
+        <v>0.92847222222222225</v>
       </c>
       <c r="D9" s="8">
-        <v>0.6875</v>
-      </c>
-      <c r="E9" s="6">
-        <v>30</v>
-      </c>
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="E9" s="6"/>
       <c r="F9" s="5">
         <f>(D9-C9)*24*60 - E9</f>
-        <v>309.99999999999994</v>
+        <v>83.000000000000028</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>14</v>
@@ -1071,25 +1059,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="7">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="C10" s="8">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.60416666666666663</v>
-      </c>
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="6"/>
       <c r="F10" s="5">
         <f>(D10-C10)*24*60 - E10</f>
-        <v>90</v>
+        <v>-740.00000000000011</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
@@ -1097,28 +1081,18 @@
       <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="7">
-        <v>43507</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.4375</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="E11" s="6">
-        <v>30</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="5">
         <f>(D11-C11)*24*60 - E11</f>
-        <v>159.99999999999997</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
@@ -1265,7 +1239,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>1031.0000000000002</v>
+        <v>-312.00000000000023</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>

--- a/Daniel_Antonov_RLog.xlsx
+++ b/Daniel_Antonov_RLog.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielantonov/Desktop/Infosüsteemide arendamine II/ISA2_DanielAntonov/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielantonov/Desktop/Infosusteemide arendamine II/ISA2_DanielAntonov/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC8642-14BD-9D45-8649-D35BF714B6E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4176E2-7430-DA48-BE71-760CFCED24FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -87,6 +88,21 @@
   </si>
   <si>
     <t>JavaScript 18-20</t>
+  </si>
+  <si>
+    <t>JavaScript 21-27</t>
+  </si>
+  <si>
+    <t>Kontroll tehtud toodest, Kaustade korrastamine</t>
+  </si>
+  <si>
+    <t>Konspekti lugemine</t>
+  </si>
+  <si>
+    <t>UI/UX</t>
+  </si>
+  <si>
+    <t>JavaScript 28-31</t>
   </si>
 </sst>
 </file>
@@ -868,7 +884,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -981,7 +997,7 @@
         <v>43509</v>
       </c>
       <c r="C7" s="19">
-        <v>0.50347222222222221</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D7" s="19">
         <v>0.61111111111111105</v>
@@ -991,7 +1007,7 @@
       </c>
       <c r="F7" s="21">
         <f>(D7-C7)*24*60 - E7</f>
-        <v>124.99999999999994</v>
+        <v>184.99999999999989</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>14</v>
@@ -1008,7 +1024,7 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="8">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="D8" s="8">
         <v>0.83680555555555547</v>
@@ -1018,7 +1034,7 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
-        <v>219.99999999999994</v>
+        <v>279.99999999999989</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>
@@ -1059,21 +1075,25 @@
         <v>4</v>
       </c>
       <c r="B10" s="7">
-        <v>43509</v>
+        <v>43510</v>
       </c>
       <c r="C10" s="8">
         <v>0.51388888888888895</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8">
+        <v>0.59375</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5">
         <f>(D10-C10)*24*60 - E10</f>
-        <v>-740.00000000000011</v>
+        <v>114.99999999999991</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="10"/>
     </row>
@@ -1081,18 +1101,26 @@
       <c r="A11" s="9">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="7">
+        <v>43511</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="5">
         <f>(D11-C11)*24*60 - E11</f>
-        <v>0</v>
+        <v>30.000000000000053</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="10"/>
     </row>
@@ -1100,18 +1128,26 @@
       <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="7">
+        <v>43513</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="5">
         <f>(D12-C12)*24*60 - E12</f>
-        <v>0</v>
+        <v>59.999999999999943</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="10"/>
     </row>
@@ -1119,18 +1155,26 @@
       <c r="A13" s="9">
         <v>7</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="7">
+        <v>43514</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="10"/>
     </row>
@@ -1139,17 +1183,23 @@
         <v>8</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="8">
+        <v>0.90625</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>104.99999999999994</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="10"/>
     </row>
@@ -1239,7 +1289,7 @@
       <c r="E19" s="36"/>
       <c r="F19" s="30">
         <f>SUM(F7:F18)</f>
-        <v>-312.00000000000023</v>
+        <v>947.99999999999955</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>

--- a/Daniel_Antonov_RLog.xlsx
+++ b/Daniel_Antonov_RLog.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielantonov/Desktop/Infosusteemide arendamine II/ISA2_DanielAntonov/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4176E2-7430-DA48-BE71-760CFCED24FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF291F99-3A67-E541-8E28-0657F24D7C6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nädal 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>Time recording log:</t>
   </si>
@@ -103,6 +104,12 @@
   </si>
   <si>
     <t>JavaScript 28-31</t>
+  </si>
+  <si>
+    <t>JavaScript 32-35</t>
+  </si>
+  <si>
+    <t>Persoona koostamine ja tema vajadustele vastava veebilehe</t>
   </si>
 </sst>
 </file>
@@ -883,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="A1:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1309,4 +1316,408 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A2E77E-2C12-3446-826E-E6451F2720D5}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="44">
+        <v>43509</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
+    </row>
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>43516</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.78611111111111109</v>
+      </c>
+      <c r="E7" s="20">
+        <v>10</v>
+      </c>
+      <c r="F7" s="21">
+        <f>(D7-C7)*24*60 - E7</f>
+        <v>117.00000000000003</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7">
+        <v>43518</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F18" si="0">(D8-C8)*24*60 - E8</f>
+        <v>120.00000000000006</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43520</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5">
+        <f>(D9-C9)*24*60 - E9</f>
+        <v>-630</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5">
+        <f>(D10-C10)*24*60 - E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5">
+        <f>(D11-C11)*24*60 - E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5">
+        <f>(D12-C12)*24*60 - E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5">
+        <f>(D15-C15)*24*60 - E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>12</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="30">
+        <f>SUM(F7:F18)</f>
+        <v>-392.99999999999989</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>